--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/2.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/2.xlsx
@@ -479,13 +479,13 @@
         <v>0.1143972772000873</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.511442365668856</v>
+        <v>-2.525008402505534</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0737971747708744</v>
+        <v>-0.07624275532314648</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2008072101191428</v>
+        <v>0.2060546229578686</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1265636293001893</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.713188890774438</v>
+        <v>-2.730065586657252</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1227744879804067</v>
+        <v>-0.1245630468917699</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2545588805859465</v>
+        <v>0.2597347510682179</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1405193720328358</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.006262884014451</v>
+        <v>-3.026057486006945</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2225235135031981</v>
+        <v>-0.2266277086867425</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2677051535964884</v>
+        <v>0.2719290727234873</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1547522615923372</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.224382388411483</v>
+        <v>-3.245149382432523</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3091875880352657</v>
+        <v>-0.3145532647693552</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2790468071666672</v>
+        <v>0.2852928928995746</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1694448469697781</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.274543070598697</v>
+        <v>-3.295673616594373</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3620924306093424</v>
+        <v>-0.3687400295672498</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3100509283771135</v>
+        <v>0.3165014208427481</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1828499112773711</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.0568593905568</v>
+        <v>-3.077016814499886</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4246189901025075</v>
+        <v>-0.4348948085663229</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3088916501929319</v>
+        <v>0.3164532392557481</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1943862939122414</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.701345710685032</v>
+        <v>-2.719613102374437</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5308214281871153</v>
+        <v>-0.542339747576294</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2909666397808458</v>
+        <v>0.2966199459888443</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2046639731873835</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.27257411785192</v>
+        <v>-2.291328435579643</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5328596553220238</v>
+        <v>-0.5437881152824755</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2894730105838462</v>
+        <v>0.2950679148682084</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2184128147657068</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.893493071720749</v>
+        <v>-1.911893327786426</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6085193473929127</v>
+        <v>-0.6229679833005451</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3040574309639332</v>
+        <v>0.309497570150659</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2439495306447715</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.387783514713158</v>
+        <v>-1.404755113721881</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7460719380855121</v>
+        <v>-0.7614827456850534</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3154049247264756</v>
+        <v>0.319812809912929</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2884575883420478</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8409298025037594</v>
+        <v>-0.8597162412894815</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9087096150280138</v>
+        <v>-0.9237130692101917</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3620359406539176</v>
+        <v>0.3663664432915529</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3581386517826958</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3387623221647124</v>
+        <v>-0.3589737678871615</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.215140128203659</v>
+        <v>-1.233644777707836</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3940664756722727</v>
+        <v>0.3976684143125445</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4516053435432494</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2619087626755809</v>
+        <v>0.2437691251941312</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.646298169641361</v>
+        <v>-1.66676658382781</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4932183415258825</v>
+        <v>0.4973969991620631</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5653084046635725</v>
       </c>
       <c r="E15" t="n">
-        <v>0.880221608598324</v>
+        <v>0.8624367628029651</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.04727555699189</v>
+        <v>-2.068900329266339</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5758322426537693</v>
+        <v>0.5784851500349505</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6942904574105225</v>
       </c>
       <c r="E16" t="n">
-        <v>1.365586855507194</v>
+        <v>1.346152155369108</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.439125453702103</v>
+        <v>-2.462981909483505</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6948290821590101</v>
+        <v>0.6964687161651005</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8325771718303143</v>
       </c>
       <c r="E17" t="n">
-        <v>1.908845929316775</v>
+        <v>1.892693417287052</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.796364910417325</v>
+        <v>-2.820594408485955</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8088865789727068</v>
+        <v>0.8101130193690701</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9748696353178843</v>
       </c>
       <c r="E18" t="n">
-        <v>2.316965871928029</v>
+        <v>2.302431093183033</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.133755013336644</v>
+        <v>-3.156580675165865</v>
       </c>
       <c r="G18" t="n">
-        <v>0.941372802789853</v>
+        <v>0.9416779528408529</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.112329097505226</v>
       </c>
       <c r="E19" t="n">
-        <v>2.763727447313273</v>
+        <v>2.751874776911276</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.405291837187661</v>
+        <v>-3.42749478850611</v>
       </c>
       <c r="G19" t="n">
-        <v>1.115889430999988</v>
+        <v>1.115344833062079</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.238472601073023</v>
       </c>
       <c r="E20" t="n">
-        <v>3.076128097132643</v>
+        <v>3.066411477087646</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.674799924216362</v>
+        <v>-3.695948720813174</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25568027541595</v>
+        <v>1.254510776895132</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.346560561413881</v>
       </c>
       <c r="E21" t="n">
-        <v>3.412257448525462</v>
+        <v>3.40346503892201</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.897904762819802</v>
+        <v>-3.91813883928766</v>
       </c>
       <c r="G21" t="n">
-        <v>1.374630393382282</v>
+        <v>1.374249320830555</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.433138185141648</v>
       </c>
       <c r="E22" t="n">
-        <v>3.729122925406832</v>
+        <v>3.721056159704561</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.063139135291985</v>
+        <v>-4.082744661056707</v>
       </c>
       <c r="G22" t="n">
-        <v>1.442607312398809</v>
+        <v>1.44069610944781</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.496030451869154</v>
       </c>
       <c r="E23" t="n">
-        <v>3.930936612724595</v>
+        <v>3.925614737433234</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.173814430703092</v>
+        <v>-4.189415774578497</v>
       </c>
       <c r="G23" t="n">
-        <v>1.527639053165241</v>
+        <v>1.527062334169332</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.534782581457687</v>
       </c>
       <c r="E24" t="n">
-        <v>4.09063813295628</v>
+        <v>4.085044688720009</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.235749670719438</v>
+        <v>-4.248281263483708</v>
       </c>
       <c r="G24" t="n">
-        <v>1.578127516148864</v>
+        <v>1.577565397633864</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.55209924526863</v>
       </c>
       <c r="E25" t="n">
-        <v>4.190585725019435</v>
+        <v>4.185541258865346</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.266058079014567</v>
+        <v>-4.276609846567564</v>
       </c>
       <c r="G25" t="n">
-        <v>1.593263834707314</v>
+        <v>1.591824227289678</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.549998508406224</v>
       </c>
       <c r="E26" t="n">
-        <v>4.219220188178337</v>
+        <v>4.213740627693156</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.177500322108591</v>
+        <v>-4.18409608935927</v>
       </c>
       <c r="G26" t="n">
-        <v>1.546572956808145</v>
+        <v>1.542801652589328</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.531034328580825</v>
       </c>
       <c r="E27" t="n">
-        <v>4.176450999451348</v>
+        <v>4.168690843848168</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.107113593718019</v>
+        <v>-4.110551276948063</v>
       </c>
       <c r="G27" t="n">
-        <v>1.520768066849425</v>
+        <v>1.517960394370607</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.497667364514373</v>
       </c>
       <c r="E28" t="n">
-        <v>4.129438910972179</v>
+        <v>4.121767818302544</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.939511023242382</v>
+        <v>-3.940426473395382</v>
       </c>
       <c r="G28" t="n">
-        <v>1.430281586415358</v>
+        <v>1.423971258566451</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.451816045517029</v>
       </c>
       <c r="E29" t="n">
-        <v>3.975288493582129</v>
+        <v>3.966497544026768</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.770003820032155</v>
+        <v>-3.769070849302064</v>
       </c>
       <c r="G29" t="n">
-        <v>1.32697150359884</v>
+        <v>1.320217321130297</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.395705143689679</v>
       </c>
       <c r="E30" t="n">
-        <v>3.874532034876611</v>
+        <v>3.864711751417159</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.607185827150426</v>
+        <v>-3.604424146186472</v>
       </c>
       <c r="G30" t="n">
-        <v>1.236120011142047</v>
+        <v>1.227799197071958</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.331407420245813</v>
       </c>
       <c r="E31" t="n">
-        <v>3.718524436314925</v>
+        <v>3.709412276179564</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.458185729401057</v>
+        <v>-3.453743533084467</v>
       </c>
       <c r="G31" t="n">
-        <v>1.137743430824709</v>
+        <v>1.128486725928348</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.262053210612513</v>
       </c>
       <c r="E32" t="n">
-        <v>3.559662443735514</v>
+        <v>3.55120584519297</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.266295258933154</v>
+        <v>-3.257767848058201</v>
       </c>
       <c r="G32" t="n">
-        <v>1.02172070928065</v>
+        <v>1.012154474189016</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.190973367376438</v>
       </c>
       <c r="E33" t="n">
-        <v>3.379863361532471</v>
+        <v>3.370453351586564</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.122994458906647</v>
+        <v>-3.113407053117695</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9691881789697546</v>
+        <v>0.9605446942715751</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.119466127150215</v>
       </c>
       <c r="E34" t="n">
-        <v>3.188331332870886</v>
+        <v>3.181200457994888</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.107564670681923</v>
+        <v>-3.100203108207562</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8739317214226893</v>
+        <v>0.8647699196522372</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.049575750806044</v>
       </c>
       <c r="E35" t="n">
-        <v>2.892024793157602</v>
+        <v>2.887167213159149</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.989942466454273</v>
+        <v>-2.982447309579594</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8259589212997022</v>
+        <v>0.8173373373228863</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9806627865248023</v>
       </c>
       <c r="E36" t="n">
-        <v>2.603176179092679</v>
+        <v>2.595935800609863</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.933177256727834</v>
+        <v>-2.925803283844699</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7611488465923559</v>
+        <v>0.7535916376738125</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9129504787288073</v>
       </c>
       <c r="E37" t="n">
-        <v>2.340363142584841</v>
+        <v>2.330614401481844</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.867756881918488</v>
+        <v>-2.861833466813671</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7142637822970958</v>
+        <v>0.7088908053225518</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8457222809341046</v>
       </c>
       <c r="E38" t="n">
-        <v>2.03183454030256</v>
+        <v>2.021547041454018</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.792767351921326</v>
+        <v>-2.787443286557827</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6380594922882981</v>
+        <v>0.631968171653027</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7786548460233914</v>
       </c>
       <c r="E39" t="n">
-        <v>1.74578483842791</v>
+        <v>1.735198029720731</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.66884577020545</v>
+        <v>-2.661644813021089</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6142782289835772</v>
+        <v>0.6096995181704875</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7127083305953315</v>
       </c>
       <c r="E40" t="n">
-        <v>1.509838146840882</v>
+        <v>1.500670504878066</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.551217725785436</v>
+        <v>-2.544421931946302</v>
       </c>
       <c r="G40" t="n">
-        <v>0.540912272463506</v>
+        <v>0.5354254117378711</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6475556348750723</v>
       </c>
       <c r="E41" t="n">
-        <v>1.262884152696494</v>
+        <v>1.251235889027224</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.437054375485149</v>
+        <v>-2.429784066016469</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4786193206648863</v>
+        <v>0.4735909150397968</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5841136462868706</v>
       </c>
       <c r="E42" t="n">
-        <v>1.049249916034733</v>
+        <v>1.037731596645554</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.318113747831408</v>
+        <v>-2.31005939253791</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4106657624178137</v>
+        <v>0.4060125891520877</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5223080486118877</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8460608634153332</v>
+        <v>0.8347425706146089</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.214862066938527</v>
+        <v>-2.207044969459802</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3558365764599193</v>
+        <v>0.3519674490190113</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4627333015728591</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6839969853725585</v>
+        <v>0.6722917798277435</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.152503412975816</v>
+        <v>-2.144610392996364</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2658961540118526</v>
+        <v>0.2613422640163083</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4067150395114565</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5055411474131518</v>
+        <v>0.4939746464369731</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.045995824840209</v>
+        <v>-2.036860303935393</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2348511514548609</v>
+        <v>0.2311221886306801</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3540815074467588</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3357492348251974</v>
+        <v>0.3229197922503827</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.973507357222773</v>
+        <v>-1.964652165551412</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2090681622175042</v>
+        <v>0.2039740544283237</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3056177381295988</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1615158559446988</v>
+        <v>0.1490207643827021</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.913550482369608</v>
+        <v>-1.903254953256565</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1405685459844317</v>
+        <v>0.1365767745038873</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2604984517328782</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03798264702100467</v>
+        <v>0.02672129609582588</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.863682539824621</v>
+        <v>-1.854134555334124</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1270893820091626</v>
+        <v>0.1225968140334365</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2184964061305491</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.09590814305959575</v>
+        <v>-0.1074717239395926</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.78965810161555</v>
+        <v>-1.779226788030053</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07555260449626731</v>
+        <v>0.07084686949926858</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1794334883037887</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2000854944421132</v>
+        <v>-0.2108810900262921</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.767401858541783</v>
+        <v>-1.757508572677786</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03925288886009524</v>
+        <v>0.03417630164800569</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1432533898770675</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3127471852809012</v>
+        <v>-0.3218257643101715</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.714048781203798</v>
+        <v>-1.704167175724528</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03629775152409603</v>
+        <v>0.03098755661746109</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1106834953846243</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3680538069645227</v>
+        <v>-0.3775645602287019</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.708265530715708</v>
+        <v>-1.699716949143438</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.02678946643597794</v>
+        <v>-0.03162076556879482</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.08189958274220285</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4694541468781318</v>
+        <v>-0.479716824909129</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.701302561370165</v>
+        <v>-1.693167173407621</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02950807598124993</v>
+        <v>-0.03352320823124886</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.05768842687012288</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5055888770800312</v>
+        <v>-0.5177145764750279</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.688078905810805</v>
+        <v>-1.680422413622079</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06483539958887681</v>
+        <v>-0.06924766491960289</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.03744669528758189</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6287818947985435</v>
+        <v>-0.6426450514217217</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.668740568846719</v>
+        <v>-1.662574785758811</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08883859020341582</v>
+        <v>-0.09235000586205125</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.02086582084911782</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7115899823225214</v>
+        <v>-0.7252501922610631</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.63246275393191</v>
+        <v>-1.627675256241821</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1098034207407738</v>
+        <v>-0.1135148629878637</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.00709645036405319</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8405589502886686</v>
+        <v>-0.8546440342216647</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.671267912092082</v>
+        <v>-1.665842373386265</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1103976603137737</v>
+        <v>-0.1139572575594091</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.0048742812580604</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9122604519851039</v>
+        <v>-0.9266944874118273</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.64377374649218</v>
+        <v>-1.639926519772636</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1523244012923079</v>
+        <v>-0.1553350204557616</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.01531959200394733</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.029327107914163</v>
+        <v>-1.043241366220523</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.65503655746545</v>
+        <v>-1.650549829682087</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1751478730493926</v>
+        <v>-0.17821251399221</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.02517896000433118</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.067917639004971</v>
+        <v>-1.08327588487324</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.653163315764814</v>
+        <v>-1.647936343599361</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1875977031205711</v>
+        <v>-0.1902710511750249</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.03485303541988407</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.151008975858585</v>
+        <v>-1.16685925793349</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.697572138497893</v>
+        <v>-1.693346759322803</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2465150237330098</v>
+        <v>-0.2495314830888272</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.04511719282960407</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.20452119843848</v>
+        <v>-1.219510052139749</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.701320081947256</v>
+        <v>-1.697229027196529</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2926686039347247</v>
+        <v>-0.2954193345379967</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.05635880226961367</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.274112930643552</v>
+        <v>-1.287475290771549</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.749019853077243</v>
+        <v>-1.744373980051971</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3110024278122653</v>
+        <v>-0.3140203472161736</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.06862872405634544</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.343459374769352</v>
+        <v>-1.356080030467167</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.781206613241325</v>
+        <v>-1.776094984875054</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3577794485487982</v>
+        <v>-0.3611536196868881</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.08217988018101366</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.361277801670801</v>
+        <v>-1.373715951357253</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.867322439715256</v>
+        <v>-1.862872943158212</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.354519161161799</v>
+        <v>-0.3577458674427073</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.09632963882108143</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.387739713270431</v>
+        <v>-1.399909214108155</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.978567153881817</v>
+        <v>-1.976383651961864</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3851130088586999</v>
+        <v>-0.3879601026359719</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.111169401692196</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.43017309093651</v>
+        <v>-1.44196589936678</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.052752197380888</v>
+        <v>-2.04959776348048</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3570216835896166</v>
+        <v>-0.3600892446286157</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1260346639457222</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.458722871306139</v>
+        <v>-1.470781408488954</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.166092080557903</v>
+        <v>-2.163824625872722</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.422500460322599</v>
+        <v>-0.4271667740211432</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.140553647347303</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.455410022187867</v>
+        <v>-1.466182257002592</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.313372971680228</v>
+        <v>-2.312848814415591</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4416650515638665</v>
+        <v>-0.4475198444084104</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1540007132706833</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.47816633173277</v>
+        <v>-1.49055483978413</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.437874192488194</v>
+        <v>-2.438923237041512</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.456960515364226</v>
+        <v>-0.4612764175209522</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1657083983309089</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.515597584639396</v>
+        <v>-1.529459281214484</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.602372700722559</v>
+        <v>-2.606756495115512</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5169728720448463</v>
+        <v>-0.5222728466148449</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1754151396981641</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.521461137772486</v>
+        <v>-1.536953708065118</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.699183379462397</v>
+        <v>-2.704539565883895</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5354278799139323</v>
+        <v>-0.541476859154567</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1832057583897875</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.505313005887035</v>
+        <v>-1.521626123206758</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.820402412162001</v>
+        <v>-2.828232650073544</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5430172098904756</v>
+        <v>-0.5513000627102007</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1892355491850536</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.559123078277476</v>
+        <v>-1.576941505178925</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.955471461051964</v>
+        <v>-2.965442859488825</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.553501815231291</v>
+        <v>-0.5627205588772886</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1934470802170094</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.435274498966145</v>
+        <v>-1.453675485055868</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.01652848214163</v>
+        <v>-3.028196456460126</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5885750904710998</v>
+        <v>-0.5978609963292791</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1958009161246171</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.330253239787083</v>
+        <v>-1.349336068335259</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.076681733463023</v>
+        <v>-3.089046880744928</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5801520730346476</v>
+        <v>-0.589258392977645</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1962102057108255</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.218858870691203</v>
+        <v>-1.238397234243743</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.152100517598912</v>
+        <v>-3.165501569001317</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5525089825294731</v>
+        <v>-0.5633951010952883</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1946864301127209</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.082596962510967</v>
+        <v>-1.102535379240416</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.21160404751985</v>
+        <v>-3.226870310358391</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5624227090667432</v>
+        <v>-0.5740081906681037</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1907571262119367</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8820082555414755</v>
+        <v>-0.9023365051111973</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.277059463483378</v>
+        <v>-3.293191534839828</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5618357697341979</v>
+        <v>-0.5732110044104676</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1838765241863182</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6689989194626237</v>
+        <v>-0.6900776337510726</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.313746091863641</v>
+        <v>-3.33234345442159</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5239548220155718</v>
+        <v>-0.5360644608815684</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.173158348897693</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4187992384121454</v>
+        <v>-0.4379083478259584</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.358819236478083</v>
+        <v>-3.37920296787526</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4861833779037636</v>
+        <v>-0.4979513655164878</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1578834864596331</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1482610874553089</v>
+        <v>-0.1691076540973034</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.302178860863417</v>
+        <v>-3.322899133345548</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4490017932206827</v>
+        <v>-0.4602850448672252</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1380026043572666</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1355708013692512</v>
+        <v>0.1182268900973468</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.294453746414419</v>
+        <v>-3.317660480795367</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4306825698240513</v>
+        <v>-0.4411657151167758</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1144404090972241</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4597978407249823</v>
+        <v>0.4438570356684411</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.245926858040932</v>
+        <v>-3.268808731721653</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3831784451382459</v>
+        <v>-0.3939652804338794</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.08843444835192504</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7377179948294531</v>
+        <v>0.7244578380678204</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.15729609873041</v>
+        <v>-3.183444099990494</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3407947091072572</v>
+        <v>-0.3514866412769816</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.06132060063931753</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9951303134490204</v>
+        <v>0.9838193208887507</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.069963322172706</v>
+        <v>-3.09733192363679</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2653248232881866</v>
+        <v>-0.2747742545325477</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.03457188929017614</v>
       </c>
       <c r="E87" t="n">
-        <v>1.184202161077424</v>
+        <v>1.174906034882609</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.950313841170829</v>
+        <v>-2.979281195294458</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2300340008828325</v>
+        <v>-0.2399316668911025</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.009359911855100468</v>
       </c>
       <c r="E88" t="n">
-        <v>1.34872622015338</v>
+        <v>1.341520882824746</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.715532997984393</v>
+        <v>-2.743557161041294</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2277300449953785</v>
+        <v>-0.2377342945142849</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01285864551747807</v>
       </c>
       <c r="E89" t="n">
-        <v>1.489866149005342</v>
+        <v>1.482650591340071</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.481692425768501</v>
+        <v>-2.508190838570402</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1565205795055795</v>
+        <v>-0.1653407300227589</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03014321947620826</v>
       </c>
       <c r="E90" t="n">
-        <v>1.608880509087674</v>
+        <v>1.605135485734493</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.20075946242844</v>
+        <v>-2.226192770148024</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1538705922205802</v>
+        <v>-0.1607751596424874</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04043161645798352</v>
       </c>
       <c r="E91" t="n">
-        <v>1.652855697537753</v>
+        <v>1.649585189814117</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.91373955859738</v>
+        <v>-1.937690187480647</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0872398375438708</v>
+        <v>-0.09206237638814223</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04230716602977132</v>
       </c>
       <c r="E92" t="n">
-        <v>1.621667610267852</v>
+        <v>1.617338567678308</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.557838235957476</v>
+        <v>-1.577820454129652</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09940641828541298</v>
+        <v>-0.1046611313645934</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03408989638429526</v>
       </c>
       <c r="E93" t="n">
-        <v>1.651940247384753</v>
+        <v>1.648116381434663</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.221342412493839</v>
+        <v>-1.238801667564925</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1278028936054963</v>
+        <v>-0.1329831442320403</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.01586095350197292</v>
       </c>
       <c r="E94" t="n">
-        <v>1.607099250416765</v>
+        <v>1.600469172035949</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9752732074925414</v>
+        <v>-0.9886063666587197</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1324662872078587</v>
+        <v>-0.1370376977804938</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01143252424812713</v>
       </c>
       <c r="E95" t="n">
-        <v>1.600593276123676</v>
+        <v>1.594115042744314</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6799580404329844</v>
+        <v>-0.6891373627805274</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1899775815087523</v>
+        <v>-0.1947913600644783</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04420623725019427</v>
       </c>
       <c r="E96" t="n">
-        <v>1.506681522868338</v>
+        <v>1.498005917112158</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4034293121591495</v>
+        <v>-0.4084168364376937</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2169797109020178</v>
+        <v>-0.2205612088690168</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07795158578699388</v>
       </c>
       <c r="E97" t="n">
-        <v>1.389077569241824</v>
+        <v>1.379089380251917</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2011104482019311</v>
+        <v>-0.2021558426350218</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3204635394413536</v>
+        <v>-0.3256131290579886</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1089521477782596</v>
       </c>
       <c r="E98" t="n">
-        <v>1.315597728970662</v>
+        <v>1.307193692159391</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04054749959661061</v>
+        <v>-0.03976637386797445</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3214592922393534</v>
+        <v>-0.3273432860457154</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1346132071959529</v>
       </c>
       <c r="E99" t="n">
-        <v>1.167554692744883</v>
+        <v>1.158422091936249</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07472183713254026</v>
+        <v>0.07747694788008497</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3336623741831682</v>
+        <v>-0.340111406600712</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1563947070796444</v>
       </c>
       <c r="E100" t="n">
-        <v>1.006429625624563</v>
+        <v>0.9956500905693839</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1670844793634245</v>
+        <v>0.171810655033696</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3718338714718853</v>
+        <v>-0.3789910272135197</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1748888526536033</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8476523158344236</v>
+        <v>0.8338315006058818</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2168312379168657</v>
+        <v>0.2214347695475009</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3352041849671679</v>
+        <v>-0.3426168491247113</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1932187879580091</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7441334461409059</v>
+        <v>0.7304265146634551</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2356819188185879</v>
+        <v>0.2402109879965867</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3516370262303453</v>
+        <v>-0.3580787584074344</v>
       </c>
     </row>
   </sheetData>
